--- a/biology/Botanique/Eucalyptus_tereticornis/Eucalyptus_tereticornis.xlsx
+++ b/biology/Botanique/Eucalyptus_tereticornis/Eucalyptus_tereticornis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucalyptus tereticornis est une espèce d'Eucalyptus originaire de l'Est de l'Australie
 Il pousse jusqu'à une hauteur de 20 à 50 mètres et peut atteindre une circonférence jusqu'à 2 mètres. Le tronc est droit et est généralement non ramifié sur plus de la moitié de la hauteur totale de l'arbre. Par la suite, les branches sont anormalement fortement inclinées pour une espèce d'Eucalyptus. L'écorce se détache en lambeaux irréguliers, laissant un tronc à la surface lisse de fait de taches de couleur blanche, grise et bleu, correspondant à des zones ayant perdu leur écorce à des moments différents.
@@ -513,7 +525,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a une large distribution, la plus vaste gamme de latitudes de toutes les espèces d'Eucalyptus: du sud de la Papouasie-Nouvelle-Guinée à 15° de latitude au sud-est du Victoria à 38° de latitude Sud.
 </t>
@@ -544,7 +558,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">E. tereticornis a un cœur solide, dur et durable, avec une densité d'environ 1100 kg/m3. Il est utilisé pour la construction dans l'industrie lourde, comme pour les traverses de chemin de fer.
 Les feuilles sont utilisées dans la production de cinéole à base d'huile d'eucalyptus.
@@ -576,7 +592,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Eucalyptus tereticornis var. pruiniflora (Blakely) Cameron
 Eucalyptus insignis Naudin
